--- a/docs/220728_calcolo_variabili.xlsx
+++ b/docs/220728_calcolo_variabili.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/52495/Projects/VPC/VPC_2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/52495/Projects/VPC/VPC_2022/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A9F14-1676-5249-BD81-660935A834C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30D646-328C-2248-B1FE-618037123676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{812B1F80-2ED9-0A42-BB48-2716045C06B7}"/>
   </bookViews>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987BA68E-9AD3-0547-AA1E-357B8ED17194}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="F1:I1048576"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,10 +863,10 @@
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="104.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="77.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="104.1640625" customWidth="1"/>
+    <col min="8" max="8" width="77.6640625" customWidth="1"/>
+    <col min="9" max="9" width="79.5" customWidth="1"/>
     <col min="10" max="10" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7AF29-A30E-D842-83EB-C45CC05B4CCF}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,9 +1344,8 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="42.83203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="42.83203125" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="4" customWidth="1"/>
+    <col min="6" max="10" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
